--- a/data/output/FV2410_FV2404/UTILMD/55187.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55187.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10038" uniqueCount="543">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10059" uniqueCount="543">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1806,6 +1806,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U429" totalsRowShown="0">
+  <autoFilter ref="A1:U429"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2095,7 +2125,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U429"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -23189,5 +23222,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55187.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55187.xlsx
@@ -3491,7 +3491,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5395,7 +5395,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5597,7 +5597,7 @@
         <v>496</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -5821,7 +5821,7 @@
         <v>498</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6045,7 +6045,7 @@
         <v>499</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6377,7 +6377,7 @@
         <v>501</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -6655,7 +6655,7 @@
         <v>503</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -6821,7 +6821,7 @@
         <v>504</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6979,7 +6979,7 @@
         <v>505</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -7187,7 +7187,7 @@
         <v>507</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -7393,7 +7393,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -7591,7 +7591,7 @@
         <v>503</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -7795,7 +7795,7 @@
         <v>509</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -8103,7 +8103,7 @@
         <v>511</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -8593,7 +8593,7 @@
         <v>515</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -8855,7 +8855,7 @@
         <v>503</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -9117,7 +9117,7 @@
         <v>503</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -9267,7 +9267,7 @@
         <v>517</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -9433,7 +9433,7 @@
         <v>519</v>
       </c>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9599,7 +9599,7 @@
         <v>517</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -9761,7 +9761,7 @@
         <v>521</v>
       </c>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -10085,7 +10085,7 @@
         <v>503</v>
       </c>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -10289,7 +10289,7 @@
         <v>522</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -10493,7 +10493,7 @@
         <v>503</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -10697,7 +10697,7 @@
         <v>523</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11009,7 +11009,7 @@
         <v>503</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -11429,7 +11429,7 @@
         <v>524</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -11645,7 +11645,7 @@
         <v>503</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -11907,7 +11907,7 @@
         <v>503</v>
       </c>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -12115,7 +12115,7 @@
         <v>526</v>
       </c>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -12327,7 +12327,7 @@
         <v>527</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -12477,7 +12477,7 @@
         <v>497</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -12639,7 +12639,7 @@
         <v>528</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -13121,7 +13121,7 @@
         <v>528</v>
       </c>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -13387,7 +13387,7 @@
         <v>503</v>
       </c>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -13591,7 +13591,7 @@
         <v>528</v>
       </c>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -13795,7 +13795,7 @@
         <v>503</v>
       </c>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -13999,7 +13999,7 @@
         <v>503</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -14307,7 +14307,7 @@
         <v>503</v>
       </c>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -14727,7 +14727,7 @@
         <v>524</v>
       </c>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -14939,7 +14939,7 @@
         <v>503</v>
       </c>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -15201,7 +15201,7 @@
         <v>503</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -15413,7 +15413,7 @@
         <v>526</v>
       </c>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -15625,7 +15625,7 @@
         <v>530</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -15773,7 +15773,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -15937,7 +15937,7 @@
         <v>497</v>
       </c>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -16157,7 +16157,7 @@
         <v>503</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -16311,7 +16311,7 @@
         <v>503</v>
       </c>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -16415,7 +16415,7 @@
         <v>503</v>
       </c>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -16569,7 +16569,7 @@
         <v>497</v>
       </c>
       <c r="L251" s="4"/>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N251" s="2" t="s">
@@ -16727,7 +16727,7 @@
         <v>532</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -16877,7 +16877,7 @@
         <v>497</v>
       </c>
       <c r="L257" s="4"/>
-      <c r="M257" s="2" t="s">
+      <c r="M257" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N257" s="2" t="s">
@@ -17091,7 +17091,7 @@
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="4"/>
-      <c r="M261" s="2" t="s">
+      <c r="M261" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N261" s="2" t="s">
@@ -17339,7 +17339,7 @@
         <v>533</v>
       </c>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -17487,7 +17487,7 @@
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="4"/>
-      <c r="M269" s="2" t="s">
+      <c r="M269" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N269" s="2" t="s">
@@ -17647,7 +17647,7 @@
         <v>534</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -17913,7 +17913,7 @@
         <v>503</v>
       </c>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -18063,7 +18063,7 @@
         <v>497</v>
       </c>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -18221,7 +18221,7 @@
         <v>503</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -18425,7 +18425,7 @@
         <v>503</v>
       </c>
       <c r="L287" s="4"/>
-      <c r="M287" s="2" t="s">
+      <c r="M287" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N287" s="2" t="s">
@@ -18687,7 +18687,7 @@
         <v>528</v>
       </c>
       <c r="L292" s="4"/>
-      <c r="M292" s="2" t="s">
+      <c r="M292" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N292" s="2" t="s">
@@ -18831,7 +18831,7 @@
       </c>
       <c r="K295" s="2"/>
       <c r="L295" s="4"/>
-      <c r="M295" s="2" t="s">
+      <c r="M295" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N295" s="2" t="s">
@@ -19033,7 +19033,7 @@
         <v>536</v>
       </c>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -19181,7 +19181,7 @@
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="4"/>
-      <c r="M302" s="2" t="s">
+      <c r="M302" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N302" s="2" t="s">
@@ -19345,7 +19345,7 @@
         <v>497</v>
       </c>
       <c r="L305" s="4"/>
-      <c r="M305" s="2" t="s">
+      <c r="M305" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N305" s="2" t="s">
@@ -19565,7 +19565,7 @@
         <v>503</v>
       </c>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -19719,7 +19719,7 @@
         <v>497</v>
       </c>
       <c r="L312" s="4"/>
-      <c r="M312" s="2" t="s">
+      <c r="M312" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N312" s="2" t="s">
@@ -19823,7 +19823,7 @@
         <v>503</v>
       </c>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -19977,7 +19977,7 @@
         <v>497</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -20135,7 +20135,7 @@
         <v>528</v>
       </c>
       <c r="L320" s="4"/>
-      <c r="M320" s="2" t="s">
+      <c r="M320" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N320" s="2" t="s">
@@ -20285,7 +20285,7 @@
         <v>497</v>
       </c>
       <c r="L323" s="4"/>
-      <c r="M323" s="2" t="s">
+      <c r="M323" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N323" s="2" t="s">
@@ -20499,7 +20499,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -20751,7 +20751,7 @@
         <v>538</v>
       </c>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -20899,7 +20899,7 @@
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="4"/>
-      <c r="M335" s="2" t="s">
+      <c r="M335" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N335" s="2" t="s">
@@ -21059,7 +21059,7 @@
         <v>503</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -21487,7 +21487,7 @@
         <v>528</v>
       </c>
       <c r="L346" s="4"/>
-      <c r="M346" s="2" t="s">
+      <c r="M346" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N346" s="2" t="s">
@@ -21631,7 +21631,7 @@
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -22049,7 +22049,7 @@
         <v>541</v>
       </c>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -22197,7 +22197,7 @@
       </c>
       <c r="K360" s="2"/>
       <c r="L360" s="4"/>
-      <c r="M360" s="2" t="s">
+      <c r="M360" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N360" s="2" t="s">
@@ -22357,7 +22357,7 @@
         <v>503</v>
       </c>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -22607,7 +22607,7 @@
         <v>503</v>
       </c>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -23031,7 +23031,7 @@
         <v>503</v>
       </c>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -23459,7 +23459,7 @@
         <v>528</v>
       </c>
       <c r="L384" s="4"/>
-      <c r="M384" s="2" t="s">
+      <c r="M384" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N384" s="2" t="s">
@@ -23603,7 +23603,7 @@
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -23851,7 +23851,7 @@
         <v>503</v>
       </c>
       <c r="L392" s="4"/>
-      <c r="M392" s="2" t="s">
+      <c r="M392" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N392" s="2" t="s">
@@ -24273,7 +24273,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -24699,7 +24699,7 @@
         <v>543</v>
       </c>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -24847,7 +24847,7 @@
       </c>
       <c r="K411" s="2"/>
       <c r="L411" s="4"/>
-      <c r="M411" s="2" t="s">
+      <c r="M411" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N411" s="2" t="s">
@@ -25007,7 +25007,7 @@
         <v>503</v>
       </c>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -25261,7 +25261,7 @@
         <v>528</v>
       </c>
       <c r="L419" s="4"/>
-      <c r="M419" s="2" t="s">
+      <c r="M419" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N419" s="2" t="s">
@@ -25405,7 +25405,7 @@
       </c>
       <c r="K422" s="2"/>
       <c r="L422" s="4"/>
-      <c r="M422" s="2" t="s">
+      <c r="M422" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N422" s="2" t="s">
@@ -25653,7 +25653,7 @@
       </c>
       <c r="K427" s="2"/>
       <c r="L427" s="4"/>
-      <c r="M427" s="2" t="s">
+      <c r="M427" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N427" s="2"/>
